--- a/Excel-XLSX/UN-TMP.xlsx
+++ b/Excel-XLSX/UN-TMP.xlsx
@@ -87,103 +87,139 @@
     <t>1</t>
   </si>
   <si>
-    <t>Jk6GVe</t>
+    <t>L17TgO</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>INS</t>
+  </si>
+  <si>
+    <t>IDN</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>TMP</t>
+  </si>
+  <si>
+    <t>TLS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>LKA</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>MYA</t>
+  </si>
+  <si>
+    <t>MMR</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>RUS</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
   <si>
     <t>2000</t>
   </si>
   <si>
-    <t>191</t>
-  </si>
-  <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
-    <t>TMP</t>
-  </si>
-  <si>
-    <t>TLS</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>5000</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
-    <t>RUS</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>LKA</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>INS</t>
-  </si>
-  <si>
-    <t>IDN</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>452</t>
   </si>
   <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>9</t>
+    <t>13</t>
   </si>
   <si>
     <t>2006</t>
@@ -195,7 +231,7 @@
     <t>11727</t>
   </si>
   <si>
-    <t>10</t>
+    <t>14</t>
   </si>
   <si>
     <t>2007</t>
@@ -207,46 +243,10 @@
     <t>9965</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>12</t>
+    <t>15</t>
   </si>
   <si>
     <t>15860</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>MYA</t>
-  </si>
-  <si>
-    <t>MMR</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>2015</t>
   </si>
 </sst>
 </file>
@@ -736,43 +736,43 @@
         <v>28</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3">
@@ -786,61 +786,61 @@
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4">
@@ -854,61 +854,61 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="P4" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5">
@@ -922,61 +922,61 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="I5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="P5" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6">
@@ -990,61 +990,61 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="G6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7">
@@ -1058,61 +1058,61 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8">
@@ -1126,61 +1126,61 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="P8" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9">
@@ -1194,61 +1194,61 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="H9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="I9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="U9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10">
@@ -1262,61 +1262,61 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="J10" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11">
@@ -1330,61 +1330,61 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12">
@@ -1404,55 +1404,55 @@
         <v>64</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="S12" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="13">
@@ -1466,61 +1466,61 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T13" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="R13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="U13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14">
@@ -1540,55 +1540,55 @@
         <v>68</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15">
@@ -1602,61 +1602,61 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="H15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q15" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="R15" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="S15" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V15" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16">
@@ -1673,58 +1673,58 @@
         <v>75</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q16" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="R16" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V16" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-TMP.xlsx
+++ b/Excel-XLSX/UN-TMP.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>L17TgO</t>
+    <t>1DJxzE</t>
   </si>
   <si>
     <t>2003</t>
@@ -771,8 +771,8 @@
       <c r="U2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>35</v>
+      <c r="V2" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -839,8 +839,8 @@
       <c r="U3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>35</v>
+      <c r="V3" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -907,8 +907,8 @@
       <c r="U4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>35</v>
+      <c r="V4" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -975,8 +975,8 @@
       <c r="U5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>35</v>
+      <c r="V5" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6">
@@ -1043,8 +1043,8 @@
       <c r="U6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>35</v>
+      <c r="V6" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7">
@@ -1111,8 +1111,8 @@
       <c r="U7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>35</v>
+      <c r="V7" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -1179,8 +1179,8 @@
       <c r="U8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>35</v>
+      <c r="V8" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9">
@@ -1247,8 +1247,8 @@
       <c r="U9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>35</v>
+      <c r="V9" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10">
@@ -1315,8 +1315,8 @@
       <c r="U10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>35</v>
+      <c r="V10" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11">
@@ -1383,8 +1383,8 @@
       <c r="U11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>35</v>
+      <c r="V11" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12">
@@ -1451,8 +1451,8 @@
       <c r="U12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>35</v>
+      <c r="V12" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13">
@@ -1519,8 +1519,8 @@
       <c r="U13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>35</v>
+      <c r="V13" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14">
@@ -1587,8 +1587,8 @@
       <c r="U14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>35</v>
+      <c r="V14" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15">
@@ -1655,8 +1655,8 @@
       <c r="U15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>35</v>
+      <c r="V15" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="16">
@@ -1723,8 +1723,8 @@
       <c r="U16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>35</v>
+      <c r="V16" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-TMP.xlsx
+++ b/Excel-XLSX/UN-TMP.xlsx
@@ -90,6 +90,69 @@
     <t>1DJxzE</t>
   </si>
   <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>TMP</t>
+  </si>
+  <si>
+    <t>TLS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>RUS</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>LKA</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>2003</t>
   </si>
   <si>
@@ -105,28 +168,10 @@
     <t>IDN</t>
   </si>
   <si>
-    <t>191</t>
-  </si>
-  <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
-    <t>TMP</t>
-  </si>
-  <si>
-    <t>TLS</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>452</t>
   </si>
   <si>
     <t>2004</t>
@@ -135,31 +180,34 @@
     <t>8</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>2005</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>LKA</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>155231</t>
+  </si>
+  <si>
+    <t>11727</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>62625</t>
+  </si>
+  <si>
+    <t>9965</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
   <si>
     <t>2008</t>
@@ -168,9 +216,18 @@
     <t>12</t>
   </si>
   <si>
+    <t>15860</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>2009</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>2014</t>
   </si>
   <si>
@@ -186,67 +243,10 @@
     <t>MMR</t>
   </si>
   <si>
-    <t>9</t>
+    <t>15</t>
   </si>
   <si>
     <t>2015</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
-    <t>RUS</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>5000</t>
-  </si>
-  <si>
-    <t>452</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>155231</t>
-  </si>
-  <si>
-    <t>11727</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>62625</t>
-  </si>
-  <si>
-    <t>9965</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>15860</t>
   </si>
 </sst>
 </file>
@@ -736,43 +736,43 @@
         <v>28</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="S2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="V2" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -786,61 +786,61 @@
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="I3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="P3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="V3" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -854,61 +854,61 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="V4" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
@@ -922,61 +922,61 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="V5" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -990,61 +990,61 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="1" t="s">
+      <c r="P6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="V6" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
@@ -1058,61 +1058,61 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="V7" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -1126,61 +1126,61 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="V8" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
@@ -1194,61 +1194,61 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="1" t="s">
+      <c r="P9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="V9" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
@@ -1262,61 +1262,61 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" s="1" t="s">
+      <c r="R10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="V10" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
@@ -1330,61 +1330,61 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="R11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="1" t="s">
+      <c r="S11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="V11" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12">
@@ -1404,55 +1404,55 @@
         <v>64</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="V12" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
@@ -1466,61 +1466,61 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="V13" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
@@ -1540,55 +1540,55 @@
         <v>68</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="V14" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15">
@@ -1602,61 +1602,61 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="H15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="V15" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
@@ -1673,58 +1673,58 @@
         <v>75</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="H16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="V16" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-TMP.xlsx
+++ b/Excel-XLSX/UN-TMP.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>1DJxzE</t>
+    <t>9yTs66</t>
   </si>
   <si>
     <t>2000</t>
